--- a/data/pca/factorExposure/factorExposure_2019-06-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-06-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1194079420456497</v>
+        <v>0.07861730994792697</v>
       </c>
       <c r="C2">
-        <v>-0.01923296762152535</v>
+        <v>0.0109194866416214</v>
       </c>
       <c r="D2">
-        <v>-0.01280755895705919</v>
+        <v>0.03057496300470628</v>
       </c>
       <c r="E2">
-        <v>0.1156335033234573</v>
+        <v>0.138737133228765</v>
       </c>
       <c r="F2">
-        <v>0.0587159580205983</v>
+        <v>-0.01592535612399494</v>
       </c>
       <c r="G2">
-        <v>0.1060322478397306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.0779006959952098</v>
+      </c>
+      <c r="H2">
+        <v>-0.08160806953575488</v>
+      </c>
+      <c r="I2">
+        <v>-0.06607628710632445</v>
+      </c>
+      <c r="J2">
+        <v>0.04257739051625192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2083755647382629</v>
+        <v>0.1631760789891258</v>
       </c>
       <c r="C3">
-        <v>0.06837173698861279</v>
+        <v>0.07678287166163221</v>
       </c>
       <c r="D3">
-        <v>0.09728894634814403</v>
+        <v>-0.05544576166157933</v>
       </c>
       <c r="E3">
-        <v>0.316199983531131</v>
+        <v>0.3633565102391383</v>
       </c>
       <c r="F3">
-        <v>-0.0612529336743512</v>
+        <v>-0.1232763441228277</v>
       </c>
       <c r="G3">
-        <v>0.3441211235221562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.01495987128460557</v>
+      </c>
+      <c r="H3">
+        <v>-0.2634984003291883</v>
+      </c>
+      <c r="I3">
+        <v>-0.1621325324196833</v>
+      </c>
+      <c r="J3">
+        <v>-0.08079995176233758</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09869496860265393</v>
+        <v>0.07380468075498046</v>
       </c>
       <c r="C4">
-        <v>0.01326087934129059</v>
+        <v>0.02766194582426229</v>
       </c>
       <c r="D4">
-        <v>0.005629917719056948</v>
+        <v>0.02082278701682905</v>
       </c>
       <c r="E4">
-        <v>0.0967266625084805</v>
+        <v>0.08695230973521724</v>
       </c>
       <c r="F4">
-        <v>0.02632395964495505</v>
+        <v>-0.05609590673063781</v>
       </c>
       <c r="G4">
-        <v>0.03097804500851743</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03417967585319587</v>
+      </c>
+      <c r="H4">
+        <v>-0.036014125538029</v>
+      </c>
+      <c r="I4">
+        <v>-0.01946065574607505</v>
+      </c>
+      <c r="J4">
+        <v>-0.04530878118833591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.0101999965101688</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.003506567490615534</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0007133517687407595</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005707532707984575</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.00321371638434207</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01306886173790099</v>
+      </c>
+      <c r="H6">
+        <v>-0.005542921204821429</v>
+      </c>
+      <c r="I6">
+        <v>-0.003648850817916144</v>
+      </c>
+      <c r="J6">
+        <v>0.0009954699844113115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04294811548189397</v>
+        <v>0.03540537504849418</v>
       </c>
       <c r="C7">
-        <v>0.001332135061609258</v>
+        <v>0.01439687414032971</v>
       </c>
       <c r="D7">
-        <v>-0.02170172133730408</v>
+        <v>0.01499509072113466</v>
       </c>
       <c r="E7">
-        <v>0.07092081026674597</v>
+        <v>0.05760068151970156</v>
       </c>
       <c r="F7">
-        <v>-0.0569821417167879</v>
+        <v>-0.03156058927376555</v>
       </c>
       <c r="G7">
-        <v>0.01852176773808623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01713860138553196</v>
+      </c>
+      <c r="H7">
+        <v>-0.04303432943079392</v>
+      </c>
+      <c r="I7">
+        <v>-0.001289666209325986</v>
+      </c>
+      <c r="J7">
+        <v>-0.02704698353907919</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.040770527696086</v>
+        <v>0.03199585469136843</v>
       </c>
       <c r="C8">
-        <v>0.03028236444046477</v>
+        <v>0.03278240784090637</v>
       </c>
       <c r="D8">
-        <v>0.0115964412940729</v>
+        <v>0.005120673851379723</v>
       </c>
       <c r="E8">
-        <v>0.07018275153056271</v>
+        <v>0.07707174640684709</v>
       </c>
       <c r="F8">
-        <v>-0.01370386779375393</v>
+        <v>-0.04889435380372996</v>
       </c>
       <c r="G8">
-        <v>0.05409431487873326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.001953244841233609</v>
+      </c>
+      <c r="H8">
+        <v>-0.05621662524073087</v>
+      </c>
+      <c r="I8">
+        <v>-0.03784168943190269</v>
+      </c>
+      <c r="J8">
+        <v>-0.02205979396791376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.08670029171760003</v>
+        <v>0.06367395496460664</v>
       </c>
       <c r="C9">
-        <v>0.0143675391052161</v>
+        <v>0.026641678430876</v>
       </c>
       <c r="D9">
-        <v>-0.009463737581938882</v>
+        <v>0.02189211270182519</v>
       </c>
       <c r="E9">
-        <v>0.08625247122631408</v>
+        <v>0.08432636254609363</v>
       </c>
       <c r="F9">
-        <v>0.01440984822307581</v>
+        <v>-0.06156472992113504</v>
       </c>
       <c r="G9">
-        <v>0.03242463434448975</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02570939328333624</v>
+      </c>
+      <c r="H9">
+        <v>-0.03285447518849877</v>
+      </c>
+      <c r="I9">
+        <v>-0.01099212264103847</v>
+      </c>
+      <c r="J9">
+        <v>-0.01289335683497827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.02205574942588928</v>
+        <v>0.004008232696422824</v>
       </c>
       <c r="C10">
-        <v>-0.1608458679625028</v>
+        <v>-0.159590784553951</v>
       </c>
       <c r="D10">
-        <v>0.007044333299372977</v>
+        <v>-0.01257935697743654</v>
       </c>
       <c r="E10">
-        <v>0.03136695853047505</v>
+        <v>0.04817083208314212</v>
       </c>
       <c r="F10">
-        <v>-0.01069013628560152</v>
+        <v>-0.0008501310070079714</v>
       </c>
       <c r="G10">
-        <v>-0.01186848798048642</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01093888100968296</v>
+      </c>
+      <c r="H10">
+        <v>0.01938530213076788</v>
+      </c>
+      <c r="I10">
+        <v>-0.11929642924991</v>
+      </c>
+      <c r="J10">
+        <v>-0.03985226396844643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05982298755352572</v>
+        <v>0.05093369487978643</v>
       </c>
       <c r="C11">
-        <v>-0.00307387232550541</v>
+        <v>0.01604254416041292</v>
       </c>
       <c r="D11">
-        <v>0.01566434639864745</v>
+        <v>0.00382858894504705</v>
       </c>
       <c r="E11">
-        <v>0.0394908009958565</v>
+        <v>0.04803595545624158</v>
       </c>
       <c r="F11">
-        <v>-0.006391442222874603</v>
+        <v>-0.003570746876844192</v>
       </c>
       <c r="G11">
-        <v>-0.009126112062643467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.002021975351219349</v>
+      </c>
+      <c r="H11">
+        <v>-0.01907373956197404</v>
+      </c>
+      <c r="I11">
+        <v>0.01244548946948221</v>
+      </c>
+      <c r="J11">
+        <v>0.001038917137137952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.05017582371568984</v>
+        <v>0.04908354534627792</v>
       </c>
       <c r="C12">
-        <v>0.001765719050475879</v>
+        <v>0.01665190676931063</v>
       </c>
       <c r="D12">
-        <v>0.008518080831656992</v>
+        <v>0.007183152747930363</v>
       </c>
       <c r="E12">
-        <v>0.0239679423656762</v>
+        <v>0.02446800813888275</v>
       </c>
       <c r="F12">
-        <v>-0.01121524909844187</v>
+        <v>-0.01638740804852928</v>
       </c>
       <c r="G12">
-        <v>0.0007282824834338587</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.001930208045685062</v>
+      </c>
+      <c r="H12">
+        <v>-0.006751919880141282</v>
+      </c>
+      <c r="I12">
+        <v>0.01914198829332913</v>
+      </c>
+      <c r="J12">
+        <v>0.001356913648737587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.05825300652252336</v>
+        <v>0.03995007146911611</v>
       </c>
       <c r="C13">
-        <v>0.01222225501518028</v>
+        <v>0.01831345552428238</v>
       </c>
       <c r="D13">
-        <v>0.03003670971930617</v>
+        <v>0.001780128024375872</v>
       </c>
       <c r="E13">
-        <v>0.1090829525649171</v>
+        <v>0.1049373348170688</v>
       </c>
       <c r="F13">
-        <v>-0.01168788229703877</v>
+        <v>-0.0116184690261446</v>
       </c>
       <c r="G13">
-        <v>0.03553079476973992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>6.073261013045306e-05</v>
+      </c>
+      <c r="H13">
+        <v>-0.05562173894361755</v>
+      </c>
+      <c r="I13">
+        <v>-0.02812729822900541</v>
+      </c>
+      <c r="J13">
+        <v>0.01833737939644079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03796093258940784</v>
+        <v>0.0290029365672434</v>
       </c>
       <c r="C14">
-        <v>0.003364682544362092</v>
+        <v>0.01213556282909852</v>
       </c>
       <c r="D14">
-        <v>-0.0138192102885155</v>
+        <v>0.02004442293227461</v>
       </c>
       <c r="E14">
-        <v>0.02423032922384837</v>
+        <v>0.03756287342993059</v>
       </c>
       <c r="F14">
-        <v>-0.005815352909653808</v>
+        <v>-0.0217014780423563</v>
       </c>
       <c r="G14">
-        <v>0.03990289850779097</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.01336195573013603</v>
+      </c>
+      <c r="H14">
+        <v>-0.06238043149794212</v>
+      </c>
+      <c r="I14">
+        <v>-0.02257197897138062</v>
+      </c>
+      <c r="J14">
+        <v>-0.006422232083738149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.05235659247312108</v>
+        <v>0.04349171606105866</v>
       </c>
       <c r="C16">
-        <v>0.01516093719434108</v>
+        <v>0.02495087003585893</v>
       </c>
       <c r="D16">
-        <v>0.02605841357000742</v>
+        <v>-0.002606828075218895</v>
       </c>
       <c r="E16">
-        <v>0.0373420611768445</v>
+        <v>0.04493764477129634</v>
       </c>
       <c r="F16">
-        <v>-0.01026459150538193</v>
+        <v>-0.007946415098129217</v>
       </c>
       <c r="G16">
-        <v>-0.006752261655667178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.004282472387849203</v>
+      </c>
+      <c r="H16">
+        <v>-0.01815187545890732</v>
+      </c>
+      <c r="I16">
+        <v>0.01409833061998024</v>
+      </c>
+      <c r="J16">
+        <v>-0.004704708416860545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.04684646557519647</v>
+        <v>0.04785245276767407</v>
       </c>
       <c r="C19">
-        <v>0.02546910835613559</v>
+        <v>0.02973405204387198</v>
       </c>
       <c r="D19">
-        <v>0.01592651842732551</v>
+        <v>0.002482739627039654</v>
       </c>
       <c r="E19">
-        <v>0.07891513742616849</v>
+        <v>0.09386009541266438</v>
       </c>
       <c r="F19">
-        <v>-0.01812437709964276</v>
+        <v>-0.03586506821423883</v>
       </c>
       <c r="G19">
-        <v>0.06316555493069168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.007139990501137362</v>
+      </c>
+      <c r="H19">
+        <v>-0.07569110127498813</v>
+      </c>
+      <c r="I19">
+        <v>-0.06633244132174979</v>
+      </c>
+      <c r="J19">
+        <v>0.01259677979068103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03546770447693433</v>
+        <v>0.01876184761848695</v>
       </c>
       <c r="C20">
-        <v>0.0278237914603195</v>
+        <v>0.02945633623865839</v>
       </c>
       <c r="D20">
-        <v>0.007135654091602899</v>
+        <v>0.0102992227067778</v>
       </c>
       <c r="E20">
-        <v>0.07294961836354044</v>
+        <v>0.07181744616300187</v>
       </c>
       <c r="F20">
-        <v>-0.02376353411520425</v>
+        <v>-0.03715640611849243</v>
       </c>
       <c r="G20">
-        <v>0.0539175658296915</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.008143654322201453</v>
+      </c>
+      <c r="H20">
+        <v>-0.07532247072113885</v>
+      </c>
+      <c r="I20">
+        <v>-0.01960822055541097</v>
+      </c>
+      <c r="J20">
+        <v>-0.03070310468659889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.03693719373852806</v>
+        <v>0.01730496870068672</v>
       </c>
       <c r="C21">
-        <v>0.009904377360737347</v>
+        <v>0.02117780547506516</v>
       </c>
       <c r="D21">
-        <v>0.02501799740909601</v>
+        <v>-0.01123761019651096</v>
       </c>
       <c r="E21">
-        <v>0.09278667771851078</v>
+        <v>0.08277119331554242</v>
       </c>
       <c r="F21">
-        <v>0.01353668828296918</v>
+        <v>-0.03165417248689221</v>
       </c>
       <c r="G21">
-        <v>0.04159013929533033</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01245562870980406</v>
+      </c>
+      <c r="H21">
+        <v>-0.04668746646093745</v>
+      </c>
+      <c r="I21">
+        <v>-0.001056571494373239</v>
+      </c>
+      <c r="J21">
+        <v>0.02231494852592855</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04729109915630953</v>
+        <v>0.04138324423128793</v>
       </c>
       <c r="C24">
-        <v>0.008615206907864166</v>
+        <v>0.01480984076220006</v>
       </c>
       <c r="D24">
-        <v>0.01419826692878826</v>
+        <v>0.00375504034863738</v>
       </c>
       <c r="E24">
-        <v>0.05128564850887982</v>
+        <v>0.04838667311018015</v>
       </c>
       <c r="F24">
-        <v>-0.01206037694655728</v>
+        <v>-0.00815638856789121</v>
       </c>
       <c r="G24">
-        <v>-0.009561980074021762</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01109224449159696</v>
+      </c>
+      <c r="H24">
+        <v>-0.01539046400192876</v>
+      </c>
+      <c r="I24">
+        <v>0.01019443821154268</v>
+      </c>
+      <c r="J24">
+        <v>-0.005347187217693329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05106209667576173</v>
+        <v>0.04466207297628366</v>
       </c>
       <c r="C25">
-        <v>-0.002387674138443954</v>
+        <v>0.01506549247954509</v>
       </c>
       <c r="D25">
-        <v>0.01393143954825753</v>
+        <v>0.002389322629275661</v>
       </c>
       <c r="E25">
-        <v>0.03850767977166279</v>
+        <v>0.04782552470652093</v>
       </c>
       <c r="F25">
-        <v>-0.008639050308624668</v>
+        <v>-0.01106831187989977</v>
       </c>
       <c r="G25">
-        <v>-0.01223700728321097</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.00544094133673048</v>
+      </c>
+      <c r="H25">
+        <v>-0.008998377526116061</v>
+      </c>
+      <c r="I25">
+        <v>0.01356416192776688</v>
+      </c>
+      <c r="J25">
+        <v>0.003964442986564815</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.001539962166208856</v>
+        <v>0.008728390476603839</v>
       </c>
       <c r="C26">
-        <v>0.01363509545071982</v>
+        <v>0.01452772978999161</v>
       </c>
       <c r="D26">
-        <v>0.001120449183377532</v>
+        <v>-0.006054455122021271</v>
       </c>
       <c r="E26">
-        <v>0.06046359967283806</v>
+        <v>0.06099643479635011</v>
       </c>
       <c r="F26">
-        <v>0.007224566277144797</v>
+        <v>-0.00314558578047315</v>
       </c>
       <c r="G26">
-        <v>0.01755119129640623</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.00738593424622742</v>
+      </c>
+      <c r="H26">
+        <v>-0.03589097747486735</v>
+      </c>
+      <c r="I26">
+        <v>0.001635925075480078</v>
+      </c>
+      <c r="J26">
+        <v>-0.02240182317066802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1083245436139696</v>
+        <v>0.08946358265758723</v>
       </c>
       <c r="C27">
-        <v>-0.0004015779565140731</v>
+        <v>0.01557736974537387</v>
       </c>
       <c r="D27">
-        <v>-0.002425188724999934</v>
+        <v>0.02703625904298664</v>
       </c>
       <c r="E27">
-        <v>0.1110850751407406</v>
+        <v>0.08625747069743193</v>
       </c>
       <c r="F27">
-        <v>-0.02163473812744561</v>
+        <v>-0.04476209696246113</v>
       </c>
       <c r="G27">
-        <v>-0.01765184276573891</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.003964075450491536</v>
+      </c>
+      <c r="H27">
+        <v>-0.009503882598152767</v>
+      </c>
+      <c r="I27">
+        <v>0.0002014418353960577</v>
+      </c>
+      <c r="J27">
+        <v>-0.02163087291040611</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.02762257656656241</v>
+        <v>0.01073120218271655</v>
       </c>
       <c r="C28">
-        <v>-0.234989482265988</v>
+        <v>-0.2306744416708168</v>
       </c>
       <c r="D28">
-        <v>0.01846120975735555</v>
+        <v>-0.01890393318227897</v>
       </c>
       <c r="E28">
-        <v>0.01369841006741506</v>
+        <v>0.03834974928599885</v>
       </c>
       <c r="F28">
-        <v>-0.004039461965193693</v>
+        <v>0.002838353556811764</v>
       </c>
       <c r="G28">
-        <v>-0.04283225721704879</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01482288749885652</v>
+      </c>
+      <c r="H28">
+        <v>0.03960046702658643</v>
+      </c>
+      <c r="I28">
+        <v>-0.1581664708646162</v>
+      </c>
+      <c r="J28">
+        <v>-0.0664631496619527</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.02072054546523289</v>
+        <v>0.01974221093685053</v>
       </c>
       <c r="C29">
-        <v>0.01394756192153555</v>
+        <v>0.01749817813498633</v>
       </c>
       <c r="D29">
-        <v>-0.01305272508398144</v>
+        <v>0.01663336339483372</v>
       </c>
       <c r="E29">
-        <v>0.043540163528028</v>
+        <v>0.03694020322226079</v>
       </c>
       <c r="F29">
-        <v>0.004124629482156564</v>
+        <v>-0.03251038275631147</v>
       </c>
       <c r="G29">
-        <v>0.04417094852883778</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.01825417557744006</v>
+      </c>
+      <c r="H29">
+        <v>-0.06103273036741057</v>
+      </c>
+      <c r="I29">
+        <v>-0.0104234847497661</v>
+      </c>
+      <c r="J29">
+        <v>-0.01344646818324493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1056237337308653</v>
+        <v>0.1035316727975244</v>
       </c>
       <c r="C30">
-        <v>-0.003509143949781122</v>
+        <v>0.02648291429960677</v>
       </c>
       <c r="D30">
-        <v>0.006764681950077882</v>
+        <v>0.02566265216951857</v>
       </c>
       <c r="E30">
-        <v>0.1285456316355727</v>
+        <v>0.1141681677734381</v>
       </c>
       <c r="F30">
-        <v>-0.02434100686969954</v>
+        <v>-0.01930919912627827</v>
       </c>
       <c r="G30">
-        <v>-0.08086965287777803</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.02783420543594155</v>
+      </c>
+      <c r="H30">
+        <v>-0.009895579896359674</v>
+      </c>
+      <c r="I30">
+        <v>0.02975628388364149</v>
+      </c>
+      <c r="J30">
+        <v>0.01742861302320763</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05615452002241501</v>
+        <v>0.05729910776348933</v>
       </c>
       <c r="C31">
-        <v>0.008835201129399697</v>
+        <v>0.01509801807345309</v>
       </c>
       <c r="D31">
-        <v>-0.0146666506157591</v>
+        <v>0.0142024663856908</v>
       </c>
       <c r="E31">
-        <v>0.0005743412303721064</v>
+        <v>0.01774659303583002</v>
       </c>
       <c r="F31">
-        <v>0.01598156476353768</v>
+        <v>0.0144356247244539</v>
       </c>
       <c r="G31">
-        <v>0.02010506033323257</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03679167036392972</v>
+      </c>
+      <c r="H31">
+        <v>-0.05012725147576926</v>
+      </c>
+      <c r="I31">
+        <v>-0.01874282976981948</v>
+      </c>
+      <c r="J31">
+        <v>-0.008736893585902407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.0668007800535155</v>
+        <v>0.04817217046968269</v>
       </c>
       <c r="C32">
-        <v>0.01553400144367248</v>
+        <v>0.0402504028346017</v>
       </c>
       <c r="D32">
-        <v>0.008279145033268603</v>
+        <v>0.01505987158372294</v>
       </c>
       <c r="E32">
-        <v>0.1128678894156466</v>
+        <v>0.09941474420711183</v>
       </c>
       <c r="F32">
-        <v>-0.0467702507872404</v>
+        <v>-0.04304826208503336</v>
       </c>
       <c r="G32">
-        <v>0.02763464779905692</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01832170927216741</v>
+      </c>
+      <c r="H32">
+        <v>-0.05930951300178641</v>
+      </c>
+      <c r="I32">
+        <v>-0.03062445027932151</v>
+      </c>
+      <c r="J32">
+        <v>0.02598791555262019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06901494294923559</v>
+        <v>0.05942064875827587</v>
       </c>
       <c r="C33">
-        <v>0.02127179753062226</v>
+        <v>0.03787512240956791</v>
       </c>
       <c r="D33">
-        <v>0.005288131989915278</v>
+        <v>0.001425530988630746</v>
       </c>
       <c r="E33">
-        <v>0.0814840242290807</v>
+        <v>0.089323849121982</v>
       </c>
       <c r="F33">
-        <v>0.01557048981252856</v>
+        <v>-0.01527641803270637</v>
       </c>
       <c r="G33">
-        <v>0.01939718718948168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01395791727977864</v>
+      </c>
+      <c r="H33">
+        <v>-0.05174224283331187</v>
+      </c>
+      <c r="I33">
+        <v>0.01002376981635386</v>
+      </c>
+      <c r="J33">
+        <v>-0.003822769220656727</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04786735919777604</v>
+        <v>0.04289895191420066</v>
       </c>
       <c r="C34">
-        <v>0.009135994939866386</v>
+        <v>0.02045115022645618</v>
       </c>
       <c r="D34">
-        <v>0.01223990061982948</v>
+        <v>0.006873159679260167</v>
       </c>
       <c r="E34">
-        <v>0.02308900758854725</v>
+        <v>0.03879437294827892</v>
       </c>
       <c r="F34">
-        <v>-0.009953163830219805</v>
+        <v>-0.0090834787547201</v>
       </c>
       <c r="G34">
-        <v>0.00947327295317279</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.003035742149356469</v>
+      </c>
+      <c r="H34">
+        <v>-0.02212879254895906</v>
+      </c>
+      <c r="I34">
+        <v>0.008915429534895993</v>
+      </c>
+      <c r="J34">
+        <v>0.009845147929933049</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.01115711590690105</v>
+        <v>0.01301378273350195</v>
       </c>
       <c r="C36">
-        <v>-0.01234001339864457</v>
+        <v>-0.001732120356145749</v>
       </c>
       <c r="D36">
-        <v>-0.001378510526986061</v>
+        <v>0.005084436886255035</v>
       </c>
       <c r="E36">
-        <v>0.03022436807739161</v>
+        <v>0.03145743985799154</v>
       </c>
       <c r="F36">
-        <v>0.007105817586350168</v>
+        <v>-0.0145528987901449</v>
       </c>
       <c r="G36">
-        <v>0.01400032081385993</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.0159947735095887</v>
+      </c>
+      <c r="H36">
+        <v>-0.03462582935562877</v>
+      </c>
+      <c r="I36">
+        <v>-0.009154291282407429</v>
+      </c>
+      <c r="J36">
+        <v>-0.00183285914454725</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.0547929615034627</v>
+        <v>0.03067955955917838</v>
       </c>
       <c r="C38">
-        <v>0.0009223834092467687</v>
+        <v>0.006744484473757536</v>
       </c>
       <c r="D38">
-        <v>-0.01607667741151855</v>
+        <v>0.005713675858213699</v>
       </c>
       <c r="E38">
-        <v>0.0377514505089932</v>
+        <v>0.04596504662401905</v>
       </c>
       <c r="F38">
-        <v>-0.001123359582552373</v>
+        <v>-0.02233791500305753</v>
       </c>
       <c r="G38">
-        <v>0.02661238506625255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01570551720399212</v>
+      </c>
+      <c r="H38">
+        <v>-0.01102814749139973</v>
+      </c>
+      <c r="I38">
+        <v>-0.007215947409519704</v>
+      </c>
+      <c r="J38">
+        <v>0.0193001168737194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07744564727376081</v>
+        <v>0.06365181022594089</v>
       </c>
       <c r="C39">
-        <v>0.005139827729905838</v>
+        <v>0.02794116016873366</v>
       </c>
       <c r="D39">
-        <v>0.008130383480695717</v>
+        <v>0.01747140040758528</v>
       </c>
       <c r="E39">
-        <v>0.04787226763513905</v>
+        <v>0.06265135021194032</v>
       </c>
       <c r="F39">
-        <v>0.004772676776054494</v>
+        <v>-0.002912300062205289</v>
       </c>
       <c r="G39">
-        <v>-0.01150563865143004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.004353390376332807</v>
+      </c>
+      <c r="H39">
+        <v>-0.01907705511489242</v>
+      </c>
+      <c r="I39">
+        <v>0.02348147239222347</v>
+      </c>
+      <c r="J39">
+        <v>0.01405386748606149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.07208302713387782</v>
+        <v>0.05604123912387605</v>
       </c>
       <c r="C40">
-        <v>0.02365184038107007</v>
+        <v>0.03122066064867734</v>
       </c>
       <c r="D40">
-        <v>0.02083163759979075</v>
+        <v>0.01668942732652151</v>
       </c>
       <c r="E40">
-        <v>0.1158877878651309</v>
+        <v>0.1124352434544152</v>
       </c>
       <c r="F40">
-        <v>0.0001257125596065983</v>
+        <v>-0.006355757391057456</v>
       </c>
       <c r="G40">
-        <v>0.07850147023818006</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.005300832285105854</v>
+      </c>
+      <c r="H40">
+        <v>-0.08169875153340522</v>
+      </c>
+      <c r="I40">
+        <v>-0.02449780510624697</v>
+      </c>
+      <c r="J40">
+        <v>0.001191803569932409</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.003126176054485418</v>
+        <v>0.0003313455954777993</v>
       </c>
       <c r="C41">
-        <v>0.006686282350847977</v>
+        <v>0.008621553378758388</v>
       </c>
       <c r="D41">
-        <v>-0.01015627113292029</v>
+        <v>0.002576223403564202</v>
       </c>
       <c r="E41">
-        <v>0.02554473805860832</v>
+        <v>0.0211750606488999</v>
       </c>
       <c r="F41">
-        <v>0.02344316490002904</v>
+        <v>-0.01019424855120279</v>
       </c>
       <c r="G41">
-        <v>0.02815205324283352</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03075765780959714</v>
+      </c>
+      <c r="H41">
+        <v>-0.04022866658269315</v>
+      </c>
+      <c r="I41">
+        <v>-0.02206671840699477</v>
+      </c>
+      <c r="J41">
+        <v>-0.0258602598905932</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1460774610756108</v>
+        <v>0.2469723545552678</v>
       </c>
       <c r="C42">
-        <v>0.1666207722793278</v>
+        <v>0.1219911165506111</v>
       </c>
       <c r="D42">
-        <v>0.9160769545496749</v>
+        <v>-0.9136967036674702</v>
       </c>
       <c r="E42">
-        <v>-0.1702395740911567</v>
+        <v>-0.1345201669303208</v>
       </c>
       <c r="F42">
-        <v>0.002170872943632238</v>
+        <v>0.1976372132489104</v>
       </c>
       <c r="G42">
-        <v>-0.1499543146572872</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.008579276823687461</v>
+      </c>
+      <c r="H42">
+        <v>0.01242965830438133</v>
+      </c>
+      <c r="I42">
+        <v>-0.04274529337731423</v>
+      </c>
+      <c r="J42">
+        <v>-0.03038875462085667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.008489562071778067</v>
+        <v>0.00191770311833159</v>
       </c>
       <c r="C43">
-        <v>0.009000336213091856</v>
+        <v>0.0118225638784597</v>
       </c>
       <c r="D43">
-        <v>-0.01145717492339392</v>
+        <v>0.003729500613638425</v>
       </c>
       <c r="E43">
-        <v>0.03675664942454188</v>
+        <v>0.03167549974700943</v>
       </c>
       <c r="F43">
-        <v>-0.00948194558273925</v>
+        <v>-0.009520995265426211</v>
       </c>
       <c r="G43">
-        <v>0.02268301513512478</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.008638353231371245</v>
+      </c>
+      <c r="H43">
+        <v>-0.03687847557790733</v>
+      </c>
+      <c r="I43">
+        <v>-0.01286702624077908</v>
+      </c>
+      <c r="J43">
+        <v>-0.01811158236577917</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04532020454987201</v>
+        <v>0.02926558148936133</v>
       </c>
       <c r="C44">
-        <v>0.0276826720723446</v>
+        <v>0.0299940460343686</v>
       </c>
       <c r="D44">
-        <v>0.0136568380630561</v>
+        <v>-0.004517412444187986</v>
       </c>
       <c r="E44">
-        <v>0.1206919335154631</v>
+        <v>0.1187810894349884</v>
       </c>
       <c r="F44">
-        <v>0.02909321353389406</v>
+        <v>-0.03956337706448014</v>
       </c>
       <c r="G44">
-        <v>0.1104587060089735</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0253968375899437</v>
+      </c>
+      <c r="H44">
+        <v>-0.1146795013160433</v>
+      </c>
+      <c r="I44">
+        <v>-0.04185221288447835</v>
+      </c>
+      <c r="J44">
+        <v>0.009609251197176649</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02172162060164776</v>
+        <v>0.02090262436218469</v>
       </c>
       <c r="C46">
-        <v>0.01052557928981428</v>
+        <v>0.02284966045879653</v>
       </c>
       <c r="D46">
-        <v>-0.01944969886013656</v>
+        <v>0.01478202921770566</v>
       </c>
       <c r="E46">
-        <v>0.03431521931231974</v>
+        <v>0.04795516921957161</v>
       </c>
       <c r="F46">
-        <v>0.02128505942044377</v>
+        <v>-0.01603498196919316</v>
       </c>
       <c r="G46">
-        <v>0.04064852311781465</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01783798522831368</v>
+      </c>
+      <c r="H46">
+        <v>-0.06350881294224507</v>
+      </c>
+      <c r="I46">
+        <v>-0.01235294934570591</v>
+      </c>
+      <c r="J46">
+        <v>-0.03069052843370084</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.08003170882667662</v>
+        <v>0.08826931810814241</v>
       </c>
       <c r="C47">
-        <v>0.0017667871478327</v>
+        <v>0.0115635425449026</v>
       </c>
       <c r="D47">
-        <v>-0.01688186149057139</v>
+        <v>0.02096736016905452</v>
       </c>
       <c r="E47">
-        <v>-0.003607642714046349</v>
+        <v>0.005181018981917794</v>
       </c>
       <c r="F47">
-        <v>0.01305895324205086</v>
+        <v>0.0006511359454455864</v>
       </c>
       <c r="G47">
-        <v>0.04392972805129995</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.03517097624303916</v>
+      </c>
+      <c r="H47">
+        <v>-0.06896509952249343</v>
+      </c>
+      <c r="I47">
+        <v>-0.02354829145948267</v>
+      </c>
+      <c r="J47">
+        <v>-0.02020413294679901</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.01377949268617551</v>
+        <v>0.01401853684075685</v>
       </c>
       <c r="C48">
-        <v>0.0122191059808659</v>
+        <v>0.01611050635633019</v>
       </c>
       <c r="D48">
-        <v>-0.008332632685527122</v>
+        <v>0.004148837701934695</v>
       </c>
       <c r="E48">
-        <v>0.04214299706338195</v>
+        <v>0.04168185499952877</v>
       </c>
       <c r="F48">
-        <v>0.008343458727845424</v>
+        <v>-0.01520319828409684</v>
       </c>
       <c r="G48">
-        <v>0.01007491943734352</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.007670667452162298</v>
+      </c>
+      <c r="H48">
+        <v>-0.0239518773114287</v>
+      </c>
+      <c r="I48">
+        <v>-0.01200213472811932</v>
+      </c>
+      <c r="J48">
+        <v>-0.01726136731949651</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.07899639457460682</v>
+        <v>0.08084757858768148</v>
       </c>
       <c r="C50">
-        <v>0.02697604005899154</v>
+        <v>0.03426818945540803</v>
       </c>
       <c r="D50">
-        <v>-0.01823678032137291</v>
+        <v>0.01737092422512998</v>
       </c>
       <c r="E50">
-        <v>-0.01354911178210639</v>
+        <v>0.008236354915646562</v>
       </c>
       <c r="F50">
-        <v>0.01827517780525859</v>
+        <v>0.0006241534222120279</v>
       </c>
       <c r="G50">
-        <v>0.02269737190411257</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01125831195512356</v>
+      </c>
+      <c r="H50">
+        <v>-0.05062893492771824</v>
+      </c>
+      <c r="I50">
+        <v>-0.02021297099431775</v>
+      </c>
+      <c r="J50">
+        <v>0.01674310610534904</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.0661288840229752</v>
+        <v>0.0475296469465387</v>
       </c>
       <c r="C51">
-        <v>-0.02783512201291071</v>
+        <v>-0.009245401720272103</v>
       </c>
       <c r="D51">
-        <v>0.003968483352948549</v>
+        <v>0.003329211239588187</v>
       </c>
       <c r="E51">
-        <v>0.06908462641792194</v>
+        <v>0.09821855648899669</v>
       </c>
       <c r="F51">
-        <v>0.0317701400272529</v>
+        <v>-0.007094423323930939</v>
       </c>
       <c r="G51">
-        <v>0.003317611087418852</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.03586962872324925</v>
+      </c>
+      <c r="H51">
+        <v>-0.05771907160919763</v>
+      </c>
+      <c r="I51">
+        <v>-0.04820360808122578</v>
+      </c>
+      <c r="J51">
+        <v>-0.01253115024740326</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1455400273457882</v>
+        <v>0.1291151397499915</v>
       </c>
       <c r="C53">
-        <v>0.00213059978120961</v>
+        <v>0.03232552694442243</v>
       </c>
       <c r="D53">
-        <v>-0.04156520589965267</v>
+        <v>0.04715460498542227</v>
       </c>
       <c r="E53">
-        <v>-0.004349073488301945</v>
+        <v>-0.0172499324655889</v>
       </c>
       <c r="F53">
-        <v>0.01324393514269613</v>
+        <v>0.008853234627557442</v>
       </c>
       <c r="G53">
-        <v>0.02564450812244201</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.03268577180002258</v>
+      </c>
+      <c r="H53">
+        <v>-0.0160462618720011</v>
+      </c>
+      <c r="I53">
+        <v>-0.007598257910763207</v>
+      </c>
+      <c r="J53">
+        <v>-0.08545452287142043</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.02160459344422522</v>
+        <v>0.02174277756900838</v>
       </c>
       <c r="C54">
-        <v>-0.01047260439261746</v>
+        <v>0.001029615366100208</v>
       </c>
       <c r="D54">
-        <v>-0.01983344060319057</v>
+        <v>0.02331937238502876</v>
       </c>
       <c r="E54">
-        <v>0.04573450747711899</v>
+        <v>0.04126025970871063</v>
       </c>
       <c r="F54">
-        <v>0.03705038933093453</v>
+        <v>-0.02665167236230124</v>
       </c>
       <c r="G54">
-        <v>0.05314109162533991</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03561886467828898</v>
+      </c>
+      <c r="H54">
+        <v>-0.06895113750623549</v>
+      </c>
+      <c r="I54">
+        <v>-0.044745689739525</v>
+      </c>
+      <c r="J54">
+        <v>-0.01330830203078341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09683816617654339</v>
+        <v>0.102637330774478</v>
       </c>
       <c r="C55">
-        <v>-0.005897335563448971</v>
+        <v>0.01437861768588145</v>
       </c>
       <c r="D55">
-        <v>-0.03314911521328411</v>
+        <v>0.03092000126861875</v>
       </c>
       <c r="E55">
-        <v>0.01651240036585818</v>
+        <v>-0.01854652577788335</v>
       </c>
       <c r="F55">
-        <v>-0.01987733418821435</v>
+        <v>-0.03115632339253202</v>
       </c>
       <c r="G55">
-        <v>0.01617203849539794</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.001300846503792153</v>
+      </c>
+      <c r="H55">
+        <v>-0.03140171365885656</v>
+      </c>
+      <c r="I55">
+        <v>0.006252353886334971</v>
+      </c>
+      <c r="J55">
+        <v>-0.07289331531154174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1795220211946411</v>
+        <v>0.1690063838401766</v>
       </c>
       <c r="C56">
-        <v>-0.02731059219185724</v>
+        <v>0.01370553897524076</v>
       </c>
       <c r="D56">
-        <v>-0.08956562729295907</v>
+        <v>0.09089956484323207</v>
       </c>
       <c r="E56">
-        <v>-0.05315331264964046</v>
+        <v>-0.0689418672676161</v>
       </c>
       <c r="F56">
-        <v>-0.03683051510511601</v>
+        <v>0.0008279222485514199</v>
       </c>
       <c r="G56">
-        <v>0.003695296280372132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.01295564598879509</v>
+      </c>
+      <c r="H56">
+        <v>0.0301028266690475</v>
+      </c>
+      <c r="I56">
+        <v>0.03856030165729533</v>
+      </c>
+      <c r="J56">
+        <v>-0.09444268853839588</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09380281573055366</v>
+        <v>0.07377318777405875</v>
       </c>
       <c r="C57">
-        <v>0.01500683154074605</v>
+        <v>0.02097572853602934</v>
       </c>
       <c r="D57">
-        <v>-0.01184783881629492</v>
+        <v>0.008067273435574566</v>
       </c>
       <c r="E57">
-        <v>0.074796527334</v>
+        <v>0.07969112824213283</v>
       </c>
       <c r="F57">
-        <v>-0.01487118291414895</v>
+        <v>-0.01240746322660818</v>
       </c>
       <c r="G57">
-        <v>0.03968509505192806</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.004764636286478297</v>
+      </c>
+      <c r="H57">
+        <v>-0.04851861259861786</v>
+      </c>
+      <c r="I57">
+        <v>0.01459881531930257</v>
+      </c>
+      <c r="J57">
+        <v>-0.01549791987100568</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1674326624204258</v>
+        <v>0.1945308670584548</v>
       </c>
       <c r="C58">
-        <v>-0.003776337240356862</v>
+        <v>0.03470136734436105</v>
       </c>
       <c r="D58">
-        <v>0.07362975967148548</v>
+        <v>-0.01140832877230682</v>
       </c>
       <c r="E58">
-        <v>0.06388148635691182</v>
+        <v>0.1558141481920766</v>
       </c>
       <c r="F58">
-        <v>-0.08579516883578997</v>
+        <v>-0.01986254241927491</v>
       </c>
       <c r="G58">
-        <v>0.217821887747583</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1656780023702101</v>
+      </c>
+      <c r="H58">
+        <v>-0.3049045964578199</v>
+      </c>
+      <c r="I58">
+        <v>-0.1100827787111288</v>
+      </c>
+      <c r="J58">
+        <v>0.2762911650298274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.0161055925903379</v>
+        <v>0.0164740471860098</v>
       </c>
       <c r="C59">
-        <v>-0.2046512956786078</v>
+        <v>-0.1997203960446988</v>
       </c>
       <c r="D59">
-        <v>-0.01812374368904449</v>
+        <v>0.01843887248952375</v>
       </c>
       <c r="E59">
-        <v>0.03485374902317916</v>
+        <v>0.05196763114705304</v>
       </c>
       <c r="F59">
-        <v>-0.008937524106731617</v>
+        <v>0.01549647614735486</v>
       </c>
       <c r="G59">
-        <v>-0.04170890066608445</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.002990213010740277</v>
+      </c>
+      <c r="H59">
+        <v>0.03025790460032998</v>
+      </c>
+      <c r="I59">
+        <v>-0.08133242872830627</v>
+      </c>
+      <c r="J59">
+        <v>-0.02275179976814439</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1739308034382256</v>
+        <v>0.1783711946092499</v>
       </c>
       <c r="C60">
-        <v>-0.1330780818599005</v>
+        <v>-0.07245734661487645</v>
       </c>
       <c r="D60">
-        <v>-0.00811472876346064</v>
+        <v>0.02404038880798536</v>
       </c>
       <c r="E60">
-        <v>0.1842223686193336</v>
+        <v>0.2031198498673277</v>
       </c>
       <c r="F60">
-        <v>-0.004277497112322932</v>
+        <v>0.03895299481539029</v>
       </c>
       <c r="G60">
-        <v>-0.1615386463542555</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.06594808038545272</v>
+      </c>
+      <c r="H60">
+        <v>0.2311619928198675</v>
+      </c>
+      <c r="I60">
+        <v>0.1162814526927999</v>
+      </c>
+      <c r="J60">
+        <v>0.01212846144187882</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.05154422111356947</v>
+        <v>0.03987928484237595</v>
       </c>
       <c r="C61">
-        <v>0.001340461287284508</v>
+        <v>0.01575881527394446</v>
       </c>
       <c r="D61">
-        <v>0.01236224712125614</v>
+        <v>0.001184120535411464</v>
       </c>
       <c r="E61">
-        <v>0.03732760909643328</v>
+        <v>0.04476690487600507</v>
       </c>
       <c r="F61">
-        <v>0.001499698243500057</v>
+        <v>-0.00440723287648983</v>
       </c>
       <c r="G61">
-        <v>-0.03112977180532701</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.00148976623503901</v>
+      </c>
+      <c r="H61">
+        <v>-0.002426810907009047</v>
+      </c>
+      <c r="I61">
+        <v>0.02759191255885081</v>
+      </c>
+      <c r="J61">
+        <v>0.03021104057298783</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.03748718968091866</v>
+        <v>0.02953544856791694</v>
       </c>
       <c r="C63">
-        <v>-0.01337045241638884</v>
+        <v>0.008378122710497916</v>
       </c>
       <c r="D63">
-        <v>-0.006308642035266991</v>
+        <v>0.007633102700686355</v>
       </c>
       <c r="E63">
-        <v>0.04630332912877744</v>
+        <v>0.03860866199091983</v>
       </c>
       <c r="F63">
-        <v>0.001410677529738481</v>
+        <v>-0.01354934023490325</v>
       </c>
       <c r="G63">
-        <v>0.01975555813645518</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.007171417589797717</v>
+      </c>
+      <c r="H63">
+        <v>-0.04431211104905386</v>
+      </c>
+      <c r="I63">
+        <v>-0.02285181255739166</v>
+      </c>
+      <c r="J63">
+        <v>-0.0521051093526787</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.09081986548229765</v>
+        <v>0.06608456859838277</v>
       </c>
       <c r="C64">
-        <v>0.00786486613411189</v>
+        <v>0.03184745098298566</v>
       </c>
       <c r="D64">
-        <v>-0.04361200445900028</v>
+        <v>0.03319239340419038</v>
       </c>
       <c r="E64">
-        <v>0.1154323203146729</v>
+        <v>0.07000705939075724</v>
       </c>
       <c r="F64">
-        <v>0.08208869041637114</v>
+        <v>-0.05954861782100725</v>
       </c>
       <c r="G64">
-        <v>-0.0422965067431239</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.071900263818909</v>
+      </c>
+      <c r="H64">
+        <v>0.01764603619527077</v>
+      </c>
+      <c r="I64">
+        <v>0.008904711373924967</v>
+      </c>
+      <c r="J64">
+        <v>-0.08795540361808764</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01087267588871005</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.004050905112060675</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.0008509825633225919</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.004063464274368139</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001794675567815642</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.01315047553919636</v>
+      </c>
+      <c r="H65">
+        <v>-0.002630294700377394</v>
+      </c>
+      <c r="I65">
+        <v>-0.0012246980359434</v>
+      </c>
+      <c r="J65">
+        <v>0.001289116491904758</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1029305561470256</v>
+        <v>0.07523606598047536</v>
       </c>
       <c r="C66">
-        <v>0.006646488354715205</v>
+        <v>0.03801243933828644</v>
       </c>
       <c r="D66">
-        <v>-0.02366790036741672</v>
+        <v>0.0395589703555471</v>
       </c>
       <c r="E66">
-        <v>0.09293357654797889</v>
+        <v>0.08808864018312054</v>
       </c>
       <c r="F66">
-        <v>0.008697289453280389</v>
+        <v>-0.004713898983697535</v>
       </c>
       <c r="G66">
-        <v>-0.006884945186511232</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.00455552028249979</v>
+      </c>
+      <c r="H66">
+        <v>-0.01631418896052623</v>
+      </c>
+      <c r="I66">
+        <v>0.04568694416390134</v>
+      </c>
+      <c r="J66">
+        <v>0.001716155079196429</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.06047107405403351</v>
+        <v>0.04025867766341459</v>
       </c>
       <c r="C67">
-        <v>-0.02099366387274971</v>
+        <v>-0.009807597740938936</v>
       </c>
       <c r="D67">
-        <v>-0.005861645534826942</v>
+        <v>0.004392489759953495</v>
       </c>
       <c r="E67">
-        <v>0.03037342381153107</v>
+        <v>0.04097455261460012</v>
       </c>
       <c r="F67">
-        <v>-0.001538205363547903</v>
+        <v>-0.00823078993801897</v>
       </c>
       <c r="G67">
-        <v>0.02684704713999878</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02227882944625154</v>
+      </c>
+      <c r="H67">
+        <v>0.002199497836373908</v>
+      </c>
+      <c r="I67">
+        <v>0.03252941232493436</v>
+      </c>
+      <c r="J67">
+        <v>0.01771694724713341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.01606952157901508</v>
+        <v>0.02471772654085178</v>
       </c>
       <c r="C68">
-        <v>-0.2448659874005059</v>
+        <v>-0.2383635474891372</v>
       </c>
       <c r="D68">
-        <v>0.004226616559117971</v>
+        <v>0.007978869696849657</v>
       </c>
       <c r="E68">
-        <v>0.01829443334026755</v>
+        <v>0.03711588353513402</v>
       </c>
       <c r="F68">
-        <v>-0.02158174981243806</v>
+        <v>0.001323383672037499</v>
       </c>
       <c r="G68">
-        <v>-0.03103325959102677</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01571268346008984</v>
+      </c>
+      <c r="H68">
+        <v>0.03585864402317822</v>
+      </c>
+      <c r="I68">
+        <v>-0.1690805991156968</v>
+      </c>
+      <c r="J68">
+        <v>-0.05306608056177357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.0650369979369109</v>
+        <v>0.06874339875924598</v>
       </c>
       <c r="C69">
-        <v>0.004391212027235771</v>
+        <v>0.0101114586189338</v>
       </c>
       <c r="D69">
-        <v>-0.0263154565446391</v>
+        <v>0.02751154000512629</v>
       </c>
       <c r="E69">
-        <v>0.002306957361759034</v>
+        <v>0.01312380096422801</v>
       </c>
       <c r="F69">
-        <v>0.005757948931930427</v>
+        <v>0.005684565568081435</v>
       </c>
       <c r="G69">
-        <v>0.01276798414256743</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02488240932264368</v>
+      </c>
+      <c r="H69">
+        <v>-0.04818523436169107</v>
+      </c>
+      <c r="I69">
+        <v>-0.0008023229433303343</v>
+      </c>
+      <c r="J69">
+        <v>-0.009849200862564538</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.006788790227498511</v>
+        <v>0.03227352285629907</v>
       </c>
       <c r="C71">
-        <v>-0.2373498216495966</v>
+        <v>-0.239530419145842</v>
       </c>
       <c r="D71">
-        <v>0.007972144913881461</v>
+        <v>-0.01255709023483201</v>
       </c>
       <c r="E71">
-        <v>0.03587508332210124</v>
+        <v>0.05487964774405938</v>
       </c>
       <c r="F71">
-        <v>-0.02273057612134199</v>
+        <v>0.02932777660202526</v>
       </c>
       <c r="G71">
-        <v>-0.1255233844277262</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.000946136902080799</v>
+      </c>
+      <c r="H71">
+        <v>0.05074393066338415</v>
+      </c>
+      <c r="I71">
+        <v>-0.1618220718866872</v>
+      </c>
+      <c r="J71">
+        <v>0.003957441754169672</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1045645204381856</v>
+        <v>0.1128658498524305</v>
       </c>
       <c r="C72">
-        <v>-0.02848703848072501</v>
+        <v>-0.01167733246598819</v>
       </c>
       <c r="D72">
-        <v>-0.03880302144068769</v>
+        <v>0.05905018864978896</v>
       </c>
       <c r="E72">
-        <v>0.06637934348666956</v>
+        <v>0.08279507053055787</v>
       </c>
       <c r="F72">
-        <v>-0.008056781332216668</v>
+        <v>-0.02223504081112622</v>
       </c>
       <c r="G72">
-        <v>0.02840896668920467</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03234258334629973</v>
+      </c>
+      <c r="H72">
+        <v>-0.002399226175982381</v>
+      </c>
+      <c r="I72">
+        <v>-0.009070163057666357</v>
+      </c>
+      <c r="J72">
+        <v>0.04575819117433623</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2667997665186731</v>
+        <v>0.2718045367550632</v>
       </c>
       <c r="C73">
-        <v>-0.231625330189031</v>
+        <v>-0.1489655719042076</v>
       </c>
       <c r="D73">
-        <v>0.03731567878148261</v>
+        <v>-0.000796096003056526</v>
       </c>
       <c r="E73">
-        <v>0.261276422191602</v>
+        <v>0.3115650042678073</v>
       </c>
       <c r="F73">
-        <v>-0.06819888629226629</v>
+        <v>0.0779747322163821</v>
       </c>
       <c r="G73">
-        <v>-0.4005707633035756</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1582515919244706</v>
+      </c>
+      <c r="H73">
+        <v>0.4194898467424438</v>
+      </c>
+      <c r="I73">
+        <v>0.3016693887080393</v>
+      </c>
+      <c r="J73">
+        <v>0.2559656241691542</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.155299748807585</v>
+        <v>0.1531684605244882</v>
       </c>
       <c r="C74">
-        <v>-0.01663398305486028</v>
+        <v>0.007425533190705274</v>
       </c>
       <c r="D74">
-        <v>-0.05044452138235119</v>
+        <v>0.04679178227861104</v>
       </c>
       <c r="E74">
-        <v>0.005765929286235707</v>
+        <v>-0.026532072657398</v>
       </c>
       <c r="F74">
-        <v>-0.03937093229312021</v>
+        <v>-5.515681483131364e-05</v>
       </c>
       <c r="G74">
-        <v>-0.01279841837006716</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01452394529610642</v>
+      </c>
+      <c r="H74">
+        <v>0.0189057390795348</v>
+      </c>
+      <c r="I74">
+        <v>0.03403621456798413</v>
+      </c>
+      <c r="J74">
+        <v>-0.09165175479351073</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2354076434352098</v>
+        <v>0.2442462854923133</v>
       </c>
       <c r="C75">
-        <v>-0.02100207425804647</v>
+        <v>0.0175281235235718</v>
       </c>
       <c r="D75">
-        <v>-0.07174258837873182</v>
+        <v>0.10371196250108</v>
       </c>
       <c r="E75">
-        <v>-0.09589132214736704</v>
+        <v>-0.1117987695924589</v>
       </c>
       <c r="F75">
-        <v>-0.01205433441105483</v>
+        <v>0.0263997092790888</v>
       </c>
       <c r="G75">
-        <v>0.02247483994388356</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.02223371095841625</v>
+      </c>
+      <c r="H75">
+        <v>0.009683693162884782</v>
+      </c>
+      <c r="I75">
+        <v>0.01755684606633722</v>
+      </c>
+      <c r="J75">
+        <v>-0.1870358467279458</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2393257883133893</v>
+        <v>0.2599244071621761</v>
       </c>
       <c r="C76">
-        <v>-0.02285942620372783</v>
+        <v>0.007187241077456412</v>
       </c>
       <c r="D76">
-        <v>-0.1133882984310931</v>
+        <v>0.1285468321239617</v>
       </c>
       <c r="E76">
-        <v>-0.07451719766359134</v>
+        <v>-0.135555851168102</v>
       </c>
       <c r="F76">
-        <v>-0.02483253255723461</v>
+        <v>-0.003864278068711671</v>
       </c>
       <c r="G76">
-        <v>0.001680028679134547</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.01702179462420863</v>
+      </c>
+      <c r="H76">
+        <v>0.00549285474506516</v>
+      </c>
+      <c r="I76">
+        <v>0.07849257346879691</v>
+      </c>
+      <c r="J76">
+        <v>-0.1765301103775428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1227401048047578</v>
+        <v>0.1286842003524121</v>
       </c>
       <c r="C77">
-        <v>-3.732390593343346e-05</v>
+        <v>0.03775866640067409</v>
       </c>
       <c r="D77">
-        <v>0.08622037165142558</v>
+        <v>-0.05950617101822786</v>
       </c>
       <c r="E77">
-        <v>0.1719931153801979</v>
+        <v>0.1759859528000305</v>
       </c>
       <c r="F77">
-        <v>-0.03396539561093187</v>
+        <v>-0.0519321571644502</v>
       </c>
       <c r="G77">
-        <v>0.1373977048467741</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03083155563394931</v>
+      </c>
+      <c r="H77">
+        <v>-0.1577931873123236</v>
+      </c>
+      <c r="I77">
+        <v>-0.1421205276385898</v>
+      </c>
+      <c r="J77">
+        <v>-0.1095871982265757</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.09346170978819382</v>
+        <v>0.09012093142316052</v>
       </c>
       <c r="C78">
-        <v>0.02063179394221556</v>
+        <v>0.04756732540288473</v>
       </c>
       <c r="D78">
-        <v>0.03112146490118358</v>
+        <v>-0.005855635865681022</v>
       </c>
       <c r="E78">
-        <v>0.08027614371011504</v>
+        <v>0.09120184219400343</v>
       </c>
       <c r="F78">
-        <v>-0.01468816555383715</v>
+        <v>-0.03891180640443937</v>
       </c>
       <c r="G78">
-        <v>-0.02232943650054062</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.01043961552556146</v>
+      </c>
+      <c r="H78">
+        <v>-0.0148163813644985</v>
+      </c>
+      <c r="I78">
+        <v>-0.03347485580775797</v>
+      </c>
+      <c r="J78">
+        <v>-0.02797924395701521</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.0742205387208156</v>
+        <v>0.09151349806565408</v>
       </c>
       <c r="C80">
-        <v>-0.01726050791265545</v>
+        <v>-0.08248091808882259</v>
       </c>
       <c r="D80">
-        <v>0.01139858125825071</v>
+        <v>-0.1720700036672374</v>
       </c>
       <c r="E80">
-        <v>-0.01787155323318859</v>
+        <v>-0.1779263780286984</v>
       </c>
       <c r="F80">
-        <v>-0.04871512174151464</v>
+        <v>-0.9321858400474312</v>
       </c>
       <c r="G80">
-        <v>0.3139173273119455</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.02836254994633071</v>
+      </c>
+      <c r="H80">
+        <v>0.1643975341135254</v>
+      </c>
+      <c r="I80">
+        <v>0.03288147896459956</v>
+      </c>
+      <c r="J80">
+        <v>0.09461133304817403</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1642601613248686</v>
+        <v>0.1737302227678067</v>
       </c>
       <c r="C81">
-        <v>-0.01433423842357932</v>
+        <v>0.006127412412968153</v>
       </c>
       <c r="D81">
-        <v>-0.06686266578921161</v>
+        <v>0.09038559297803442</v>
       </c>
       <c r="E81">
-        <v>-0.1159503938015689</v>
+        <v>-0.1360390170111711</v>
       </c>
       <c r="F81">
-        <v>-0.0332892816070769</v>
+        <v>0.02786425218492521</v>
       </c>
       <c r="G81">
-        <v>0.01107042805655987</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.009519923739321284</v>
+      </c>
+      <c r="H81">
+        <v>0.005833272170840838</v>
+      </c>
+      <c r="I81">
+        <v>0.02515242226394895</v>
+      </c>
+      <c r="J81">
+        <v>-0.1277456783681834</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.07768963719655413</v>
+        <v>0.06471739293930839</v>
       </c>
       <c r="C83">
-        <v>0.01824837112814679</v>
+        <v>0.03234002094323069</v>
       </c>
       <c r="D83">
-        <v>0.09794000095481688</v>
+        <v>-0.04499268672242742</v>
       </c>
       <c r="E83">
-        <v>0.06319148018725075</v>
+        <v>0.06657092868791624</v>
       </c>
       <c r="F83">
-        <v>0.05246346322769505</v>
+        <v>0.007448798425058252</v>
       </c>
       <c r="G83">
-        <v>0.04041518749863424</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04851330241904147</v>
+      </c>
+      <c r="H83">
+        <v>-0.0411590661254601</v>
+      </c>
+      <c r="I83">
+        <v>-0.001494527123745175</v>
+      </c>
+      <c r="J83">
+        <v>-0.09006333314195493</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2466754714414418</v>
+        <v>0.257061723672693</v>
       </c>
       <c r="C85">
-        <v>0.04076735630513303</v>
+        <v>0.05033385725396276</v>
       </c>
       <c r="D85">
-        <v>-0.06332539075006501</v>
+        <v>0.08736818404458525</v>
       </c>
       <c r="E85">
-        <v>-0.1089078957634039</v>
+        <v>-0.1388514047644352</v>
       </c>
       <c r="F85">
-        <v>-0.003685553710949433</v>
+        <v>-0.007659963558388486</v>
       </c>
       <c r="G85">
-        <v>0.04082403153969894</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.02230953622482134</v>
+      </c>
+      <c r="H85">
+        <v>-0.02484672182053515</v>
+      </c>
+      <c r="I85">
+        <v>0.03526976317640131</v>
+      </c>
+      <c r="J85">
+        <v>-0.2061658526187765</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04623553421941541</v>
+        <v>0.03075704871137318</v>
       </c>
       <c r="C86">
-        <v>0.02609290785823837</v>
+        <v>0.04001449917663139</v>
       </c>
       <c r="D86">
-        <v>-0.0001908344863547507</v>
+        <v>0.003098099278923897</v>
       </c>
       <c r="E86">
-        <v>0.04993185952357245</v>
+        <v>0.05859955476191039</v>
       </c>
       <c r="F86">
-        <v>-0.0145593879934092</v>
+        <v>-0.03594412422815877</v>
       </c>
       <c r="G86">
-        <v>0.02175529388448419</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.009895210957233631</v>
+      </c>
+      <c r="H86">
+        <v>-0.03814893373074783</v>
+      </c>
+      <c r="I86">
+        <v>-0.07474074602526171</v>
+      </c>
+      <c r="J86">
+        <v>0.02376508478614754</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.03129097626609238</v>
+        <v>0.03962015689876773</v>
       </c>
       <c r="C87">
-        <v>-0.05235424363460565</v>
+        <v>-0.02598571979988216</v>
       </c>
       <c r="D87">
-        <v>-0.005820508334801449</v>
+        <v>0.0002593240987634541</v>
       </c>
       <c r="E87">
-        <v>0.05902336898089495</v>
+        <v>0.08734808837912626</v>
       </c>
       <c r="F87">
-        <v>0.01167303745809575</v>
+        <v>-0.01933907222196499</v>
       </c>
       <c r="G87">
-        <v>-0.147055491863877</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.006123854903977435</v>
+      </c>
+      <c r="H87">
+        <v>0.01738683562282946</v>
+      </c>
+      <c r="I87">
+        <v>-0.01729297978246766</v>
+      </c>
+      <c r="J87">
+        <v>0.104759110450797</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03744362583073029</v>
+        <v>0.02225526203464227</v>
       </c>
       <c r="C88">
-        <v>0.0193341070232445</v>
+        <v>0.01682843885405539</v>
       </c>
       <c r="D88">
-        <v>-0.007004306462195005</v>
+        <v>0.01180700796584309</v>
       </c>
       <c r="E88">
-        <v>0.003204458573601642</v>
+        <v>0.002919956856507316</v>
       </c>
       <c r="F88">
-        <v>-0.001911976305602002</v>
+        <v>-0.0222139020925445</v>
       </c>
       <c r="G88">
-        <v>0.06667388565978348</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03244548259372228</v>
+      </c>
+      <c r="H88">
+        <v>-0.04454250250701883</v>
+      </c>
+      <c r="I88">
+        <v>0.01022269434760946</v>
+      </c>
+      <c r="J88">
+        <v>0.02422315006777076</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.03396130924393345</v>
+        <v>0.03722234727015804</v>
       </c>
       <c r="C89">
-        <v>-0.4329042254320246</v>
+        <v>-0.4003673274272816</v>
       </c>
       <c r="D89">
-        <v>0.09001218540742674</v>
+        <v>-0.03891075466521987</v>
       </c>
       <c r="E89">
-        <v>-0.04717182564739042</v>
+        <v>0.03911229553783665</v>
       </c>
       <c r="F89">
-        <v>0.03270851917369884</v>
+        <v>0.05357165658935141</v>
       </c>
       <c r="G89">
-        <v>0.03184823417707042</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.06660205399082747</v>
+      </c>
+      <c r="H89">
+        <v>-0.009582702406218462</v>
+      </c>
+      <c r="I89">
+        <v>-0.2664088380163456</v>
+      </c>
+      <c r="J89">
+        <v>-0.1079961494801167</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.03284508375597982</v>
+        <v>0.02002833445418194</v>
       </c>
       <c r="C90">
-        <v>-0.3085405485745457</v>
+        <v>-0.3333122504445924</v>
       </c>
       <c r="D90">
-        <v>0.02012834661350904</v>
+        <v>-0.01917134451083804</v>
       </c>
       <c r="E90">
-        <v>0.01080829564785406</v>
+        <v>0.02442572889188013</v>
       </c>
       <c r="F90">
-        <v>-0.01042881068477838</v>
+        <v>0.0003551435664118438</v>
       </c>
       <c r="G90">
-        <v>-0.07446675087987083</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.0113939644255693</v>
+      </c>
+      <c r="H90">
+        <v>0.04457901445317667</v>
+      </c>
+      <c r="I90">
+        <v>-0.1924730574662597</v>
+      </c>
+      <c r="J90">
+        <v>-0.07375315744116168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.313148784762287</v>
+        <v>0.3216479972438376</v>
       </c>
       <c r="C91">
-        <v>0.00894831815265979</v>
+        <v>0.03412607555228709</v>
       </c>
       <c r="D91">
-        <v>-0.09403587443529625</v>
+        <v>0.1085112751514781</v>
       </c>
       <c r="E91">
-        <v>-0.2529890136128875</v>
+        <v>-0.2649444639329738</v>
       </c>
       <c r="F91">
-        <v>-0.04553294318097173</v>
+        <v>0.04144316295720371</v>
       </c>
       <c r="G91">
-        <v>0.1480470701791716</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.01567018835907529</v>
+      </c>
+      <c r="H91">
+        <v>-0.001351725634897477</v>
+      </c>
+      <c r="I91">
+        <v>0.0591910384795575</v>
+      </c>
+      <c r="J91">
+        <v>-0.3620201698293191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.04611015002821679</v>
+        <v>0.05817067128309886</v>
       </c>
       <c r="C92">
-        <v>-0.4480785774201197</v>
+        <v>-0.4773495080721138</v>
       </c>
       <c r="D92">
-        <v>0.1906889516394147</v>
+        <v>-0.06531335527861554</v>
       </c>
       <c r="E92">
-        <v>-0.1472420001334904</v>
+        <v>-0.1404676431021594</v>
       </c>
       <c r="F92">
-        <v>-0.0436956801582002</v>
+        <v>0.01690597153388597</v>
       </c>
       <c r="G92">
-        <v>0.517471914939281</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0559400272249144</v>
+      </c>
+      <c r="H92">
+        <v>-0.5652269592846048</v>
+      </c>
+      <c r="I92">
+        <v>0.5947134509927339</v>
+      </c>
+      <c r="J92">
+        <v>0.1557931259247121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.04719582262332853</v>
+        <v>0.02011695396926591</v>
       </c>
       <c r="C93">
-        <v>-0.3580883143071102</v>
+        <v>-0.4061621085895388</v>
       </c>
       <c r="D93">
-        <v>0.06526502042127971</v>
+        <v>-0.04520363402255336</v>
       </c>
       <c r="E93">
-        <v>-0.0654414266786518</v>
+        <v>-0.0294231926403535</v>
       </c>
       <c r="F93">
-        <v>-0.006141281074529879</v>
+        <v>0.02699804888436323</v>
       </c>
       <c r="G93">
-        <v>0.01609553862426069</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04064519970737804</v>
+      </c>
+      <c r="H93">
+        <v>0.05793067198932946</v>
+      </c>
+      <c r="I93">
+        <v>-0.1928561037618836</v>
+      </c>
+      <c r="J93">
+        <v>-0.1214105144818975</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.3139992264404196</v>
+        <v>0.3292734738953724</v>
       </c>
       <c r="C94">
-        <v>-0.0002450277923350254</v>
+        <v>0.0208261325989192</v>
       </c>
       <c r="D94">
-        <v>-0.1031229345830385</v>
+        <v>0.1716868400184155</v>
       </c>
       <c r="E94">
-        <v>-0.5675617267822252</v>
+        <v>-0.4166280169304659</v>
       </c>
       <c r="F94">
-        <v>-0.2944544625554544</v>
+        <v>0.1021888465651227</v>
       </c>
       <c r="G94">
-        <v>-0.1201565393478992</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1802063287145231</v>
+      </c>
+      <c r="H94">
+        <v>-0.04973372024867383</v>
+      </c>
+      <c r="I94">
+        <v>-0.370893135386678</v>
+      </c>
+      <c r="J94">
+        <v>0.6039431177888454</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1842628219722379</v>
+        <v>0.1437043586079387</v>
       </c>
       <c r="C95">
-        <v>-0.04541215834561942</v>
+        <v>0.04757390009213964</v>
       </c>
       <c r="D95">
-        <v>-0.02161588016551711</v>
+        <v>0.02865778536286843</v>
       </c>
       <c r="E95">
-        <v>-0.1625991826377916</v>
+        <v>0.01898013747801315</v>
       </c>
       <c r="F95">
-        <v>0.9230525314104701</v>
+        <v>0.0703776516272502</v>
       </c>
       <c r="G95">
-        <v>0.008896396448709288</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.9262420328014028</v>
+      </c>
+      <c r="H95">
+        <v>0.09509431940465393</v>
+      </c>
+      <c r="I95">
+        <v>-0.01330220616128837</v>
+      </c>
+      <c r="J95">
+        <v>0.2307057260881159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2073289924396705</v>
+        <v>0.206197851296011</v>
       </c>
       <c r="C98">
-        <v>-0.1548757982073251</v>
+        <v>-0.09374515259597567</v>
       </c>
       <c r="D98">
-        <v>0.02473248648048893</v>
+        <v>-0.006339636001096958</v>
       </c>
       <c r="E98">
-        <v>0.09185724202705305</v>
+        <v>0.1575026178136301</v>
       </c>
       <c r="F98">
-        <v>-0.009287084799845764</v>
+        <v>0.08156762437474782</v>
       </c>
       <c r="G98">
-        <v>-0.2617747997760719</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07574599124237516</v>
+      </c>
+      <c r="H98">
+        <v>0.2953523463414051</v>
+      </c>
+      <c r="I98">
+        <v>0.2100558969388159</v>
+      </c>
+      <c r="J98">
+        <v>0.07723676364396394</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.02059784034820687</v>
+        <v>0.01324315262579458</v>
       </c>
       <c r="C101">
-        <v>0.01464396195693749</v>
+        <v>0.02793431122917321</v>
       </c>
       <c r="D101">
-        <v>-0.01442201850389327</v>
+        <v>0.02172460138555124</v>
       </c>
       <c r="E101">
-        <v>0.04382582600853276</v>
+        <v>0.06191764647253726</v>
       </c>
       <c r="F101">
-        <v>0.003714466570736654</v>
+        <v>-0.03815370885567606</v>
       </c>
       <c r="G101">
-        <v>0.04390601972080942</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.001113594026316742</v>
+      </c>
+      <c r="H101">
+        <v>-0.122084459894791</v>
+      </c>
+      <c r="I101">
+        <v>-0.009413701819724039</v>
+      </c>
+      <c r="J101">
+        <v>0.0313547631098753</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1197530338948377</v>
+        <v>0.1200490918176678</v>
       </c>
       <c r="C102">
-        <v>-0.003288532430924131</v>
+        <v>0.0239768641192813</v>
       </c>
       <c r="D102">
-        <v>-0.05144773766137461</v>
+        <v>0.0537818092252281</v>
       </c>
       <c r="E102">
-        <v>-0.05917528923954124</v>
+        <v>-0.07902056993951329</v>
       </c>
       <c r="F102">
-        <v>0.03452686184458609</v>
+        <v>-0.004762389420271735</v>
       </c>
       <c r="G102">
-        <v>0.01747262010658024</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.04435284299917584</v>
+      </c>
+      <c r="H102">
+        <v>0.00488719438927551</v>
+      </c>
+      <c r="I102">
+        <v>-0.01548665915224492</v>
+      </c>
+      <c r="J102">
+        <v>-0.06750101657158952</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01565882788401668</v>
+        <v>0.02033321554434473</v>
       </c>
       <c r="C103">
-        <v>0.001825091099974219</v>
+        <v>0.008358429209524048</v>
       </c>
       <c r="D103">
-        <v>-0.01889990434828432</v>
+        <v>0.01649919678490092</v>
       </c>
       <c r="E103">
-        <v>-0.0259483590998209</v>
+        <v>-0.01571884668016749</v>
       </c>
       <c r="F103">
-        <v>-0.006814106908511672</v>
+        <v>0.002878789486069044</v>
       </c>
       <c r="G103">
-        <v>-0.007638683150649902</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0126748025654089</v>
+      </c>
+      <c r="H103">
+        <v>-0.004037668792885865</v>
+      </c>
+      <c r="I103">
+        <v>-0.02402301401422764</v>
+      </c>
+      <c r="J103">
+        <v>0.0006759325060940776</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
